--- a/Technological products with pivot table.xlsx
+++ b/Technological products with pivot table.xlsx
@@ -890,7 +890,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="7">
         <item x="3"/>
         <item x="2"/>
@@ -900,6 +900,15 @@
         <item x="0"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
       <items count="31">
@@ -943,22 +952,22 @@
   </rowFields>
   <rowItems count="7">
     <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
       <x/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -1257,7 +1266,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,35 +1306,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B4" s="15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4" s="15">
-        <v>4426</v>
+        <v>15266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B5" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15">
-        <v>1798</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B6" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="15">
-        <v>349</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1341,24 +1350,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B8" s="15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="15">
-        <v>6094</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B9" s="15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C9" s="15">
-        <v>15266</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1382,7 +1391,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G31"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
